--- a/Cronograma de actividades .xlsx
+++ b/Cronograma de actividades .xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA30A9F-53B9-4EB9-9AB9-734E76679E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,26 +20,17 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Escriba el nombre de la compañía en la celda B2.</t>
   </si>
@@ -116,10 +108,6 @@
     <t>Semana para mostrar:</t>
   </si>
   <si>
-    <t>ASIGNADO
-A</t>
-  </si>
-  <si>
     <t>PROGRESO</t>
   </si>
   <si>
@@ -209,18 +197,9 @@
     <t>Segunda reunión con el cliente</t>
   </si>
   <si>
-    <t>Prototipo de interfaces</t>
-  </si>
-  <si>
     <t>Tercera reunión con el cliente</t>
   </si>
   <si>
-    <t>Modificaciones de los prototipos</t>
-  </si>
-  <si>
-    <t>Cuarta reunión con el cliente</t>
-  </si>
-  <si>
     <t>Programación</t>
   </si>
   <si>
@@ -239,18 +218,12 @@
     <t>Análisis de requerimientos</t>
   </si>
   <si>
-    <t>Documento Formal de Requerimientos</t>
-  </si>
-  <si>
     <t>Investigación necesaria del tema</t>
   </si>
   <si>
     <t>Modelado de base de datos</t>
   </si>
   <si>
-    <t>Base de datos</t>
-  </si>
-  <si>
     <t>Gestión de empresas</t>
   </si>
   <si>
@@ -279,12 +252,66 @@
   </si>
   <si>
     <t>SIMULADOR SIGAMEX</t>
+  </si>
+  <si>
+    <t>Documento Formal de Requisitos</t>
+  </si>
+  <si>
+    <t>Creación de base de datos</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Creación de interfaces</t>
+  </si>
+  <si>
+    <t>HRS</t>
+  </si>
+  <si>
+    <t>1HR</t>
+  </si>
+  <si>
+    <t>1:30HR</t>
+  </si>
+  <si>
+    <t>24HR</t>
+  </si>
+  <si>
+    <t>90HR</t>
+  </si>
+  <si>
+    <t>5HR</t>
+  </si>
+  <si>
+    <t>16HR</t>
+  </si>
+  <si>
+    <t>18HR</t>
+  </si>
+  <si>
+    <t>80HR</t>
+  </si>
+  <si>
+    <t>60HR</t>
+  </si>
+  <si>
+    <t>4HR</t>
+  </si>
+  <si>
+    <t>6HR</t>
+  </si>
+  <si>
+    <t>10HR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -829,7 +856,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1029,6 +1056,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1101,7 +1146,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1312,6 +1357,45 @@
     <xf numFmtId="172" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="9" fillId="45" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="9" fillId="46" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1330,55 +1414,28 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="45" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="46" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,31 +1471,91 @@
     <cellStyle name="Énfasis5" xfId="46" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="50" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Fecha" xfId="10"/>
+    <cellStyle name="Fecha" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="19" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Inicio del proyecto" xfId="9"/>
+    <cellStyle name="Inicio del proyecto" xfId="9" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Millares" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Millares [0]" xfId="14" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Moneda" xfId="15" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Moneda [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Nombre" xfId="11"/>
+    <cellStyle name="Nombre" xfId="11" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Notas" xfId="27" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="22" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Tarea" xfId="12"/>
+    <cellStyle name="Tarea" xfId="12" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Texto de advertencia" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="zTextoOculto" xfId="3"/>
+    <cellStyle name="zTextoOculto" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1564,16 +1681,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ListaTareasPendientes" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+    <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1984,15 +2101,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL39"/>
+  <dimension ref="A1:BL56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2129,7 @@
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="45"/>
       <c r="B1" s="48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2026,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="57"/>
     </row>
@@ -2035,108 +2152,108 @@
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="81">
+      <c r="D3" s="90"/>
+      <c r="E3" s="94">
         <v>44740</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="78">
+        <v>5</v>
+      </c>
+      <c r="I4" s="91">
         <f>I5</f>
-        <v>44739</v>
-      </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+        <v>44767</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
-        <v>44746</v>
-      </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78">
+        <v>44774</v>
+      </c>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
-        <v>44753</v>
-      </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="78">
+        <v>44781</v>
+      </c>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
-        <v>44760</v>
-      </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="78">
+        <v>44788</v>
+      </c>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
-        <v>44767</v>
-      </c>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="78">
+        <v>44795</v>
+      </c>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
-        <v>44774</v>
-      </c>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="78">
+        <v>44802</v>
+      </c>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
-        <v>44781</v>
-      </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="78">
+        <v>44809</v>
+      </c>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
-        <v>44788</v>
-      </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="80"/>
+        <v>44816</v>
+      </c>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -2150,227 +2267,227 @@
       <c r="G5" s="55"/>
       <c r="I5" s="61">
         <f>Inicio_del_proyecto-WEEKDAY(Inicio_del_proyecto,1)+2+7*(Semana_para_mostrar-1)</f>
-        <v>44739</v>
+        <v>44767</v>
       </c>
       <c r="J5" s="62">
         <f>I5+1</f>
-        <v>44740</v>
+        <v>44768</v>
       </c>
       <c r="K5" s="62">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44741</v>
+        <v>44769</v>
       </c>
       <c r="L5" s="62">
         <f t="shared" si="0"/>
-        <v>44742</v>
+        <v>44770</v>
       </c>
       <c r="M5" s="62">
         <f t="shared" si="0"/>
-        <v>44743</v>
+        <v>44771</v>
       </c>
       <c r="N5" s="62">
         <f t="shared" si="0"/>
-        <v>44744</v>
+        <v>44772</v>
       </c>
       <c r="O5" s="63">
         <f t="shared" si="0"/>
-        <v>44745</v>
+        <v>44773</v>
       </c>
       <c r="P5" s="61">
         <f>O5+1</f>
-        <v>44746</v>
+        <v>44774</v>
       </c>
       <c r="Q5" s="62">
         <f>P5+1</f>
-        <v>44747</v>
+        <v>44775</v>
       </c>
       <c r="R5" s="62">
         <f t="shared" si="0"/>
-        <v>44748</v>
+        <v>44776</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" si="0"/>
-        <v>44749</v>
+        <v>44777</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>44750</v>
+        <v>44778</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="0"/>
-        <v>44751</v>
+        <v>44779</v>
       </c>
       <c r="V5" s="63">
         <f t="shared" si="0"/>
-        <v>44752</v>
+        <v>44780</v>
       </c>
       <c r="W5" s="61">
         <f>V5+1</f>
-        <v>44753</v>
+        <v>44781</v>
       </c>
       <c r="X5" s="62">
         <f>W5+1</f>
-        <v>44754</v>
+        <v>44782</v>
       </c>
       <c r="Y5" s="62">
         <f t="shared" si="0"/>
-        <v>44755</v>
+        <v>44783</v>
       </c>
       <c r="Z5" s="62">
         <f t="shared" si="0"/>
-        <v>44756</v>
+        <v>44784</v>
       </c>
       <c r="AA5" s="62">
         <f t="shared" si="0"/>
-        <v>44757</v>
+        <v>44785</v>
       </c>
       <c r="AB5" s="62">
         <f t="shared" si="0"/>
-        <v>44758</v>
+        <v>44786</v>
       </c>
       <c r="AC5" s="63">
         <f t="shared" si="0"/>
-        <v>44759</v>
+        <v>44787</v>
       </c>
       <c r="AD5" s="61">
         <f>AC5+1</f>
-        <v>44760</v>
+        <v>44788</v>
       </c>
       <c r="AE5" s="62">
         <f>AD5+1</f>
-        <v>44761</v>
+        <v>44789</v>
       </c>
       <c r="AF5" s="62">
         <f t="shared" si="0"/>
-        <v>44762</v>
+        <v>44790</v>
       </c>
       <c r="AG5" s="62">
         <f t="shared" si="0"/>
-        <v>44763</v>
+        <v>44791</v>
       </c>
       <c r="AH5" s="62">
         <f t="shared" si="0"/>
-        <v>44764</v>
+        <v>44792</v>
       </c>
       <c r="AI5" s="62">
         <f t="shared" si="0"/>
-        <v>44765</v>
+        <v>44793</v>
       </c>
       <c r="AJ5" s="63">
         <f t="shared" si="0"/>
-        <v>44766</v>
+        <v>44794</v>
       </c>
       <c r="AK5" s="61">
         <f>AJ5+1</f>
-        <v>44767</v>
+        <v>44795</v>
       </c>
       <c r="AL5" s="62">
         <f>AK5+1</f>
-        <v>44768</v>
+        <v>44796</v>
       </c>
       <c r="AM5" s="62">
         <f t="shared" si="0"/>
-        <v>44769</v>
+        <v>44797</v>
       </c>
       <c r="AN5" s="62">
         <f t="shared" si="0"/>
-        <v>44770</v>
+        <v>44798</v>
       </c>
       <c r="AO5" s="62">
         <f t="shared" si="0"/>
-        <v>44771</v>
+        <v>44799</v>
       </c>
       <c r="AP5" s="62">
         <f t="shared" si="0"/>
-        <v>44772</v>
+        <v>44800</v>
       </c>
       <c r="AQ5" s="63">
         <f t="shared" si="0"/>
-        <v>44773</v>
+        <v>44801</v>
       </c>
       <c r="AR5" s="61">
         <f>AQ5+1</f>
-        <v>44774</v>
+        <v>44802</v>
       </c>
       <c r="AS5" s="62">
         <f>AR5+1</f>
-        <v>44775</v>
+        <v>44803</v>
       </c>
       <c r="AT5" s="62">
         <f t="shared" si="0"/>
-        <v>44776</v>
+        <v>44804</v>
       </c>
       <c r="AU5" s="62">
         <f t="shared" si="0"/>
-        <v>44777</v>
+        <v>44805</v>
       </c>
       <c r="AV5" s="62">
         <f t="shared" si="0"/>
-        <v>44778</v>
+        <v>44806</v>
       </c>
       <c r="AW5" s="62">
         <f t="shared" si="0"/>
-        <v>44779</v>
+        <v>44807</v>
       </c>
       <c r="AX5" s="63">
         <f t="shared" si="0"/>
-        <v>44780</v>
+        <v>44808</v>
       </c>
       <c r="AY5" s="61">
         <f>AX5+1</f>
-        <v>44781</v>
+        <v>44809</v>
       </c>
       <c r="AZ5" s="62">
         <f>AY5+1</f>
-        <v>44782</v>
+        <v>44810</v>
       </c>
       <c r="BA5" s="62">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44783</v>
+        <v>44811</v>
       </c>
       <c r="BB5" s="62">
         <f t="shared" si="1"/>
-        <v>44784</v>
+        <v>44812</v>
       </c>
       <c r="BC5" s="62">
         <f t="shared" si="1"/>
-        <v>44785</v>
+        <v>44813</v>
       </c>
       <c r="BD5" s="62">
         <f t="shared" si="1"/>
-        <v>44786</v>
+        <v>44814</v>
       </c>
       <c r="BE5" s="63">
         <f t="shared" si="1"/>
-        <v>44787</v>
+        <v>44815</v>
       </c>
       <c r="BF5" s="61">
         <f>BE5+1</f>
-        <v>44788</v>
+        <v>44816</v>
       </c>
       <c r="BG5" s="62">
         <f>BF5+1</f>
-        <v>44789</v>
+        <v>44817</v>
       </c>
       <c r="BH5" s="62">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44790</v>
+        <v>44818</v>
       </c>
       <c r="BI5" s="62">
         <f t="shared" si="2"/>
-        <v>44791</v>
+        <v>44819</v>
       </c>
       <c r="BJ5" s="62">
         <f t="shared" si="2"/>
-        <v>44792</v>
+        <v>44820</v>
       </c>
       <c r="BK5" s="62">
         <f t="shared" si="2"/>
-        <v>44793</v>
+        <v>44821</v>
       </c>
       <c r="BL5" s="63">
         <f t="shared" si="2"/>
-        <v>44794</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2381,20 +2498,20 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2693,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="15"/>
@@ -2701,7 +2818,7 @@
       <c r="F8" s="65"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H53" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="30"/>
@@ -2765,11 +2882,11 @@
       <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>42</v>
+      <c r="B9" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
@@ -2780,7 +2897,9 @@
       <c r="F9" s="66">
         <v>44740</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="13">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -2843,14 +2962,10 @@
       <c r="BL9" s="30"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="76" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
@@ -2861,11 +2976,10 @@
       <c r="F10" s="66">
         <v>44740</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+      <c r="G10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="13"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -2878,8 +2992,8 @@
       <c r="R10" s="30"/>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
@@ -2924,26 +3038,30 @@
       <c r="BL10" s="30"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>42</v>
+      <c r="A11" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="D11" s="16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E11" s="66">
         <v>44740</v>
       </c>
       <c r="F11" s="66">
-        <v>44741</v>
-      </c>
-      <c r="G11" s="13"/>
+        <v>44740</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
@@ -2957,8 +3075,8 @@
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -3003,28 +3121,24 @@
       <c r="BL11" s="30"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>42</v>
+      <c r="A12" s="45"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E12" s="66">
-        <f>F11</f>
-        <v>44741</v>
-      </c>
-      <c r="F12" s="84">
-        <v>44745</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+        <v>44740</v>
+      </c>
+      <c r="F12" s="66">
+        <v>44740</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
@@ -3037,11 +3151,11 @@
       <c r="R12" s="30"/>
       <c r="S12" s="30"/>
       <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
-      <c r="Y12" s="31"/>
+      <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
@@ -3083,24 +3197,25 @@
       <c r="BL12" s="30"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>42</v>
+      <c r="A13" s="45"/>
+      <c r="B13" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="66">
-        <v>44746</v>
+        <v>44740</v>
       </c>
       <c r="F13" s="66">
-        <f>E13+3</f>
-        <v>44749</v>
-      </c>
-      <c r="G13" s="13"/>
+        <v>44741</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -3114,11 +3229,11 @@
       <c r="R13" s="30"/>
       <c r="S13" s="30"/>
       <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
-      <c r="Y13" s="31"/>
+      <c r="Y13" s="30"/>
       <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
@@ -3161,26 +3276,25 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
-      <c r="B14" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>42</v>
+      <c r="B14" s="96"/>
+      <c r="C14" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="66">
-        <v>44749</v>
+        <v>44740</v>
       </c>
       <c r="F14" s="66">
-        <f>E14+0</f>
-        <v>44749</v>
-      </c>
-      <c r="G14" s="13"/>
+        <v>44741</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
@@ -3240,21 +3354,27 @@
       <c r="BL14" s="30"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="A15" s="44"/>
+      <c r="B15" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="66">
+        <f>F13</f>
+        <v>44741</v>
+      </c>
+      <c r="F15" s="77">
+        <v>44746</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="13"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
@@ -3313,24 +3433,24 @@
       <c r="BL15" s="30"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="69">
-        <v>44749</v>
-      </c>
-      <c r="F16" s="69">
-        <f>E16+5</f>
-        <v>44754</v>
-      </c>
-      <c r="G16" s="13"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="66">
+        <f>F14</f>
+        <v>44741</v>
+      </c>
+      <c r="F16" s="77">
+        <v>44746</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="H16" s="13">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -3351,7 +3471,7 @@
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
+      <c r="Y16" s="31"/>
       <c r="Z16" s="30"/>
       <c r="AA16" s="30"/>
       <c r="AB16" s="30"/>
@@ -3393,27 +3513,20 @@
       <c r="BL16" s="30"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="69">
-        <f>F16+0</f>
-        <v>44754</v>
-      </c>
-      <c r="F17" s="69">
-        <v>44754</v>
-      </c>
+      <c r="A17" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13">
+      <c r="H17" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
@@ -3427,8 +3540,8 @@
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
       <c r="T17" s="30"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
       <c r="W17" s="30"/>
       <c r="X17" s="30"/>
       <c r="Y17" s="30"/>
@@ -3473,27 +3586,29 @@
       <c r="BL17" s="30"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>42</v>
+      <c r="A18" s="45"/>
+      <c r="B18" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="69">
-        <v>44754</v>
+        <v>44761</v>
       </c>
       <c r="F18" s="69">
-        <f>E18+1</f>
-        <v>44755</v>
-      </c>
-      <c r="G18" s="13"/>
+        <f>E18+3</f>
+        <v>44764</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="H18" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -3553,28 +3668,25 @@
       <c r="BL18" s="30"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>42</v>
+      <c r="A19" s="45"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="78" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="69">
-        <v>44755</v>
+        <v>44761</v>
       </c>
       <c r="F19" s="69">
-        <f>E19+1</f>
-        <v>44756</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+        <f>E19+3</f>
+        <v>44764</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -3591,7 +3703,7 @@
       <c r="V19" s="30"/>
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
-      <c r="Y19" s="31"/>
+      <c r="Y19" s="30"/>
       <c r="Z19" s="30"/>
       <c r="AA19" s="30"/>
       <c r="AB19" s="30"/>
@@ -3634,23 +3746,29 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
-      <c r="B20" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="87" t="s">
+      <c r="B20" s="97" t="s">
         <v>42</v>
       </c>
+      <c r="C20" s="78" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="69">
-        <v>44756</v>
+        <v>44764</v>
       </c>
       <c r="F20" s="69">
-        <v>44756</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+        <f>E20+0</f>
+        <v>44764</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
@@ -3667,7 +3785,7 @@
       <c r="V20" s="30"/>
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
+      <c r="Y20" s="30"/>
       <c r="Z20" s="30"/>
       <c r="AA20" s="30"/>
       <c r="AB20" s="30"/>
@@ -3709,21 +3827,25 @@
       <c r="BL20" s="30"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="A21" s="44"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="69">
+        <v>44764</v>
+      </c>
+      <c r="F21" s="69">
+        <f>E21+0</f>
+        <v>44764</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="13"/>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
@@ -3783,26 +3905,26 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
-      <c r="B22" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="72">
-        <v>44756</v>
-      </c>
-      <c r="F22" s="72">
-        <v>44760</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="B22" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="69">
+        <v>44767</v>
+      </c>
+      <c r="F22" s="69">
+        <f>E22+0</f>
+        <v>44767</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="13"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
@@ -3819,7 +3941,7 @@
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
+      <c r="Y22" s="31"/>
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
@@ -3862,27 +3984,24 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
-      <c r="B23" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0</v>
-      </c>
-      <c r="E23" s="72">
-        <v>44760</v>
-      </c>
-      <c r="F23" s="72">
-        <f>E23+2</f>
-        <v>44762</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="69">
+        <v>44767</v>
+      </c>
+      <c r="F23" s="69">
+        <f>E23+0</f>
+        <v>44767</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
@@ -3899,7 +4018,7 @@
       <c r="V23" s="30"/>
       <c r="W23" s="30"/>
       <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
+      <c r="Y23" s="31"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
@@ -3942,26 +4061,27 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
-      <c r="B24" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0</v>
-      </c>
-      <c r="E24" s="72">
-        <v>44762</v>
-      </c>
-      <c r="F24" s="72">
-        <f>E24+2</f>
-        <v>44764</v>
-      </c>
-      <c r="G24" s="13"/>
+      <c r="B24" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="69">
+        <v>44767</v>
+      </c>
+      <c r="F24" s="69">
+        <v>44768</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="H24" s="13">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -3975,8 +4095,8 @@
       <c r="R24" s="30"/>
       <c r="S24" s="30"/>
       <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
       <c r="W24" s="30"/>
       <c r="X24" s="30"/>
       <c r="Y24" s="30"/>
@@ -4022,28 +4142,23 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
-      <c r="B25" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0</v>
-      </c>
-      <c r="E25" s="72">
-        <f>F24+0</f>
-        <v>44764</v>
-      </c>
-      <c r="F25" s="72">
-        <f>E25+10</f>
-        <v>44774</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
+      <c r="B25" s="98"/>
+      <c r="C25" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="69">
+        <v>44767</v>
+      </c>
+      <c r="F25" s="69">
+        <v>44768</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="13"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
@@ -4056,8 +4171,8 @@
       <c r="R25" s="30"/>
       <c r="S25" s="30"/>
       <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
       <c r="W25" s="30"/>
       <c r="X25" s="30"/>
       <c r="Y25" s="30"/>
@@ -4103,23 +4218,29 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
-      <c r="B26" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-      <c r="E26" s="72">
+      <c r="B26" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="E26" s="69">
+        <v>44768</v>
+      </c>
+      <c r="F26" s="69">
+        <f>E26+6</f>
         <v>44774</v>
       </c>
-      <c r="F26" s="72">
-        <v>44778</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
@@ -4179,27 +4300,22 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
-      <c r="B27" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="22">
-        <v>0</v>
-      </c>
-      <c r="E27" s="72">
-        <v>44778</v>
-      </c>
-      <c r="F27" s="72">
-        <f>E27+3</f>
-        <v>44781</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
+      <c r="B27" s="98"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="69">
+        <v>44768</v>
+      </c>
+      <c r="F27" s="69">
+        <f>E27+6</f>
+        <v>44774</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="13"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -4261,13 +4377,13 @@
       <c r="A28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
+      <c r="B28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4332,22 +4448,24 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="25">
+      <c r="C29" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="22">
         <v>0</v>
       </c>
-      <c r="E29" s="75">
-        <v>44781</v>
-      </c>
-      <c r="F29" s="75">
-        <v>44782</v>
-      </c>
-      <c r="G29" s="13"/>
+      <c r="E29" s="72">
+        <v>44774</v>
+      </c>
+      <c r="F29" s="72">
+        <v>44775</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="H29" s="13">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -4411,26 +4529,21 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
-      <c r="B30" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="25">
+      <c r="B30" s="100"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="22">
         <v>0</v>
       </c>
-      <c r="E30" s="75">
-        <v>44782</v>
-      </c>
-      <c r="F30" s="75">
-        <v>44783</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="E30" s="72">
+        <v>44774</v>
+      </c>
+      <c r="F30" s="72">
+        <v>44775</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="13"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
@@ -4490,23 +4603,29 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
-      <c r="B31" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="25">
+      <c r="B31" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="22">
         <v>0</v>
       </c>
-      <c r="E31" s="75">
-        <v>44783</v>
-      </c>
-      <c r="F31" s="75">
-        <v>44784</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="E31" s="72">
+        <v>44775</v>
+      </c>
+      <c r="F31" s="72">
+        <f>E31+1</f>
+        <v>44776</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
@@ -4566,26 +4685,22 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
-      <c r="B32" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="25">
+      <c r="B32" s="100"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="22">
         <v>0</v>
       </c>
-      <c r="E32" s="75">
-        <v>44784</v>
-      </c>
-      <c r="F32" s="75">
-        <v>44788</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="E32" s="72">
+        <v>44775</v>
+      </c>
+      <c r="F32" s="72">
+        <f>E32+1</f>
+        <v>44776</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="13"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
@@ -4645,21 +4760,28 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
-      <c r="B33" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13" t="e">
+      <c r="B33" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="72">
+        <v>44776</v>
+      </c>
+      <c r="F33" s="72">
+        <f>E33+1</f>
+        <v>44777</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -4720,22 +4842,21 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="44"/>
-      <c r="B34" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="93">
+      <c r="B34" s="100"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="22">
         <v>0</v>
       </c>
-      <c r="E34" s="94">
-        <v>44788</v>
-      </c>
-      <c r="F34" s="94">
-        <v>44788</v>
-      </c>
-      <c r="G34" s="13"/>
+      <c r="E34" s="72">
+        <v>44776</v>
+      </c>
+      <c r="F34" s="72">
+        <f>E34+1</f>
+        <v>44777</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -4796,25 +4917,29 @@
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44"/>
-      <c r="B35" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="93">
+      <c r="B35" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="22">
         <v>0</v>
       </c>
-      <c r="E35" s="94">
-        <v>44788</v>
-      </c>
-      <c r="F35" s="94">
-        <v>44788</v>
-      </c>
-      <c r="G35" s="13"/>
+      <c r="E35" s="72">
+        <f>F33+0</f>
+        <v>44777</v>
+      </c>
+      <c r="F35" s="72">
+        <f>E35+4</f>
+        <v>44781</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="H35" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -4874,88 +4999,1412 @@
       <c r="BL35" s="30"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29" t="str">
+      <c r="A36" s="44"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="72">
+        <f>F34+0</f>
+        <v>44777</v>
+      </c>
+      <c r="F36" s="72">
+        <f>E36+4</f>
+        <v>44781</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30"/>
+      <c r="AU36" s="30"/>
+      <c r="AV36" s="30"/>
+      <c r="AW36" s="30"/>
+      <c r="AX36" s="30"/>
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30"/>
+      <c r="BC36" s="30"/>
+      <c r="BD36" s="30"/>
+      <c r="BE36" s="30"/>
+      <c r="BF36" s="30"/>
+      <c r="BG36" s="30"/>
+      <c r="BH36" s="30"/>
+      <c r="BI36" s="30"/>
+      <c r="BJ36" s="30"/>
+      <c r="BK36" s="30"/>
+      <c r="BL36" s="30"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="72">
+        <v>44781</v>
+      </c>
+      <c r="F37" s="72">
+        <v>44784</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="30"/>
+      <c r="AM37" s="30"/>
+      <c r="AN37" s="30"/>
+      <c r="AO37" s="30"/>
+      <c r="AP37" s="30"/>
+      <c r="AQ37" s="30"/>
+      <c r="AR37" s="30"/>
+      <c r="AS37" s="30"/>
+      <c r="AT37" s="30"/>
+      <c r="AU37" s="30"/>
+      <c r="AV37" s="30"/>
+      <c r="AW37" s="30"/>
+      <c r="AX37" s="30"/>
+      <c r="AY37" s="30"/>
+      <c r="AZ37" s="30"/>
+      <c r="BA37" s="30"/>
+      <c r="BB37" s="30"/>
+      <c r="BC37" s="30"/>
+      <c r="BD37" s="30"/>
+      <c r="BE37" s="30"/>
+      <c r="BF37" s="30"/>
+      <c r="BG37" s="30"/>
+      <c r="BH37" s="30"/>
+      <c r="BI37" s="30"/>
+      <c r="BJ37" s="30"/>
+      <c r="BK37" s="30"/>
+      <c r="BL37" s="30"/>
+    </row>
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="72">
+        <v>44781</v>
+      </c>
+      <c r="F38" s="72">
+        <v>44784</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="30"/>
+      <c r="AV38" s="30"/>
+      <c r="AW38" s="30"/>
+      <c r="AX38" s="30"/>
+      <c r="AY38" s="30"/>
+      <c r="AZ38" s="30"/>
+      <c r="BA38" s="30"/>
+      <c r="BB38" s="30"/>
+      <c r="BC38" s="30"/>
+      <c r="BD38" s="30"/>
+      <c r="BE38" s="30"/>
+      <c r="BF38" s="30"/>
+      <c r="BG38" s="30"/>
+      <c r="BH38" s="30"/>
+      <c r="BI38" s="30"/>
+      <c r="BJ38" s="30"/>
+      <c r="BK38" s="30"/>
+      <c r="BL38" s="30"/>
+    </row>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="72">
+        <v>44784</v>
+      </c>
+      <c r="F39" s="72">
+        <f>E39+3</f>
+        <v>44787</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="30"/>
+      <c r="AI39" s="30"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="30"/>
+      <c r="AM39" s="30"/>
+      <c r="AN39" s="30"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="30"/>
+      <c r="AQ39" s="30"/>
+      <c r="AR39" s="30"/>
+      <c r="AS39" s="30"/>
+      <c r="AT39" s="30"/>
+      <c r="AU39" s="30"/>
+      <c r="AV39" s="30"/>
+      <c r="AW39" s="30"/>
+      <c r="AX39" s="30"/>
+      <c r="AY39" s="30"/>
+      <c r="AZ39" s="30"/>
+      <c r="BA39" s="30"/>
+      <c r="BB39" s="30"/>
+      <c r="BC39" s="30"/>
+      <c r="BD39" s="30"/>
+      <c r="BE39" s="30"/>
+      <c r="BF39" s="30"/>
+      <c r="BG39" s="30"/>
+      <c r="BH39" s="30"/>
+      <c r="BI39" s="30"/>
+      <c r="BJ39" s="30"/>
+      <c r="BK39" s="30"/>
+      <c r="BL39" s="30"/>
+    </row>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="72">
+        <v>44784</v>
+      </c>
+      <c r="F40" s="72">
+        <f>E40+3</f>
+        <v>44787</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="30"/>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="30"/>
+      <c r="AO40" s="30"/>
+      <c r="AP40" s="30"/>
+      <c r="AQ40" s="30"/>
+      <c r="AR40" s="30"/>
+      <c r="AS40" s="30"/>
+      <c r="AT40" s="30"/>
+      <c r="AU40" s="30"/>
+      <c r="AV40" s="30"/>
+      <c r="AW40" s="30"/>
+      <c r="AX40" s="30"/>
+      <c r="AY40" s="30"/>
+      <c r="AZ40" s="30"/>
+      <c r="BA40" s="30"/>
+      <c r="BB40" s="30"/>
+      <c r="BC40" s="30"/>
+      <c r="BD40" s="30"/>
+      <c r="BE40" s="30"/>
+      <c r="BF40" s="30"/>
+      <c r="BG40" s="30"/>
+      <c r="BH40" s="30"/>
+      <c r="BI40" s="30"/>
+      <c r="BJ40" s="30"/>
+      <c r="BK40" s="30"/>
+      <c r="BL40" s="30"/>
+    </row>
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="32"/>
-      <c r="AW36" s="32"/>
-      <c r="AX36" s="32"/>
-      <c r="AY36" s="32"/>
-      <c r="AZ36" s="32"/>
-      <c r="BA36" s="32"/>
-      <c r="BB36" s="32"/>
-      <c r="BC36" s="32"/>
-      <c r="BD36" s="32"/>
-      <c r="BE36" s="32"/>
-      <c r="BF36" s="32"/>
-      <c r="BG36" s="32"/>
-      <c r="BH36" s="32"/>
-      <c r="BI36" s="32"/>
-      <c r="BJ36" s="32"/>
-      <c r="BK36" s="32"/>
-      <c r="BL36" s="32"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="30"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="30"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+      <c r="AU41" s="30"/>
+      <c r="AV41" s="30"/>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="30"/>
+      <c r="AY41" s="30"/>
+      <c r="AZ41" s="30"/>
+      <c r="BA41" s="30"/>
+      <c r="BB41" s="30"/>
+      <c r="BC41" s="30"/>
+      <c r="BD41" s="30"/>
+      <c r="BE41" s="30"/>
+      <c r="BF41" s="30"/>
+      <c r="BG41" s="30"/>
+      <c r="BH41" s="30"/>
+      <c r="BI41" s="30"/>
+      <c r="BJ41" s="30"/>
+      <c r="BK41" s="30"/>
+      <c r="BL41" s="30"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="6"/>
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="B42" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0</v>
+      </c>
+      <c r="E42" s="75">
+        <v>44787</v>
+      </c>
+      <c r="F42" s="75">
+        <v>44787</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="30"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="30"/>
+      <c r="AS42" s="30"/>
+      <c r="AT42" s="30"/>
+      <c r="AU42" s="30"/>
+      <c r="AV42" s="30"/>
+      <c r="AW42" s="30"/>
+      <c r="AX42" s="30"/>
+      <c r="AY42" s="30"/>
+      <c r="AZ42" s="30"/>
+      <c r="BA42" s="30"/>
+      <c r="BB42" s="30"/>
+      <c r="BC42" s="30"/>
+      <c r="BD42" s="30"/>
+      <c r="BE42" s="30"/>
+      <c r="BF42" s="30"/>
+      <c r="BG42" s="30"/>
+      <c r="BH42" s="30"/>
+      <c r="BI42" s="30"/>
+      <c r="BJ42" s="30"/>
+      <c r="BK42" s="30"/>
+      <c r="BL42" s="30"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
-      <c r="F38" s="46"/>
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
+      <c r="E43" s="75">
+        <v>44787</v>
+      </c>
+      <c r="F43" s="75">
+        <v>44787</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="30"/>
+      <c r="AM43" s="30"/>
+      <c r="AN43" s="30"/>
+      <c r="AO43" s="30"/>
+      <c r="AP43" s="30"/>
+      <c r="AQ43" s="30"/>
+      <c r="AR43" s="30"/>
+      <c r="AS43" s="30"/>
+      <c r="AT43" s="30"/>
+      <c r="AU43" s="30"/>
+      <c r="AV43" s="30"/>
+      <c r="AW43" s="30"/>
+      <c r="AX43" s="30"/>
+      <c r="AY43" s="30"/>
+      <c r="AZ43" s="30"/>
+      <c r="BA43" s="30"/>
+      <c r="BB43" s="30"/>
+      <c r="BC43" s="30"/>
+      <c r="BD43" s="30"/>
+      <c r="BE43" s="30"/>
+      <c r="BF43" s="30"/>
+      <c r="BG43" s="30"/>
+      <c r="BH43" s="30"/>
+      <c r="BI43" s="30"/>
+      <c r="BJ43" s="30"/>
+      <c r="BK43" s="30"/>
+      <c r="BL43" s="30"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="75">
+        <v>44788</v>
+      </c>
+      <c r="F44" s="75">
+        <v>44788</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
+      <c r="AO44" s="30"/>
+      <c r="AP44" s="30"/>
+      <c r="AQ44" s="30"/>
+      <c r="AR44" s="30"/>
+      <c r="AS44" s="30"/>
+      <c r="AT44" s="30"/>
+      <c r="AU44" s="30"/>
+      <c r="AV44" s="30"/>
+      <c r="AW44" s="30"/>
+      <c r="AX44" s="30"/>
+      <c r="AY44" s="30"/>
+      <c r="AZ44" s="30"/>
+      <c r="BA44" s="30"/>
+      <c r="BB44" s="30"/>
+      <c r="BC44" s="30"/>
+      <c r="BD44" s="30"/>
+      <c r="BE44" s="30"/>
+      <c r="BF44" s="30"/>
+      <c r="BG44" s="30"/>
+      <c r="BH44" s="30"/>
+      <c r="BI44" s="30"/>
+      <c r="BJ44" s="30"/>
+      <c r="BK44" s="30"/>
+      <c r="BL44" s="30"/>
+    </row>
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="25">
+        <v>0</v>
+      </c>
+      <c r="E45" s="75">
+        <v>44788</v>
+      </c>
+      <c r="F45" s="75">
+        <v>44788</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="30"/>
+      <c r="AS45" s="30"/>
+      <c r="AT45" s="30"/>
+      <c r="AU45" s="30"/>
+      <c r="AV45" s="30"/>
+      <c r="AW45" s="30"/>
+      <c r="AX45" s="30"/>
+      <c r="AY45" s="30"/>
+      <c r="AZ45" s="30"/>
+      <c r="BA45" s="30"/>
+      <c r="BB45" s="30"/>
+      <c r="BC45" s="30"/>
+      <c r="BD45" s="30"/>
+      <c r="BE45" s="30"/>
+      <c r="BF45" s="30"/>
+      <c r="BG45" s="30"/>
+      <c r="BH45" s="30"/>
+      <c r="BI45" s="30"/>
+      <c r="BJ45" s="30"/>
+      <c r="BK45" s="30"/>
+      <c r="BL45" s="30"/>
+    </row>
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="25">
+        <v>0</v>
+      </c>
+      <c r="E46" s="75">
+        <v>44789</v>
+      </c>
+      <c r="F46" s="75">
+        <v>44789</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="30"/>
+      <c r="AS46" s="30"/>
+      <c r="AT46" s="30"/>
+      <c r="AU46" s="30"/>
+      <c r="AV46" s="30"/>
+      <c r="AW46" s="30"/>
+      <c r="AX46" s="30"/>
+      <c r="AY46" s="30"/>
+      <c r="AZ46" s="30"/>
+      <c r="BA46" s="30"/>
+      <c r="BB46" s="30"/>
+      <c r="BC46" s="30"/>
+      <c r="BD46" s="30"/>
+      <c r="BE46" s="30"/>
+      <c r="BF46" s="30"/>
+      <c r="BG46" s="30"/>
+      <c r="BH46" s="30"/>
+      <c r="BI46" s="30"/>
+      <c r="BJ46" s="30"/>
+      <c r="BK46" s="30"/>
+      <c r="BL46" s="30"/>
+    </row>
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="25">
+        <v>0</v>
+      </c>
+      <c r="E47" s="75">
+        <v>44789</v>
+      </c>
+      <c r="F47" s="75">
+        <v>44789</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30"/>
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="30"/>
+      <c r="AS47" s="30"/>
+      <c r="AT47" s="30"/>
+      <c r="AU47" s="30"/>
+      <c r="AV47" s="30"/>
+      <c r="AW47" s="30"/>
+      <c r="AX47" s="30"/>
+      <c r="AY47" s="30"/>
+      <c r="AZ47" s="30"/>
+      <c r="BA47" s="30"/>
+      <c r="BB47" s="30"/>
+      <c r="BC47" s="30"/>
+      <c r="BD47" s="30"/>
+      <c r="BE47" s="30"/>
+      <c r="BF47" s="30"/>
+      <c r="BG47" s="30"/>
+      <c r="BH47" s="30"/>
+      <c r="BI47" s="30"/>
+      <c r="BJ47" s="30"/>
+      <c r="BK47" s="30"/>
+      <c r="BL47" s="30"/>
+    </row>
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0</v>
+      </c>
+      <c r="E48" s="75">
+        <v>44790</v>
+      </c>
+      <c r="F48" s="75">
+        <v>44790</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="30"/>
+      <c r="AM48" s="30"/>
+      <c r="AN48" s="30"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="30"/>
+      <c r="AQ48" s="30"/>
+      <c r="AR48" s="30"/>
+      <c r="AS48" s="30"/>
+      <c r="AT48" s="30"/>
+      <c r="AU48" s="30"/>
+      <c r="AV48" s="30"/>
+      <c r="AW48" s="30"/>
+      <c r="AX48" s="30"/>
+      <c r="AY48" s="30"/>
+      <c r="AZ48" s="30"/>
+      <c r="BA48" s="30"/>
+      <c r="BB48" s="30"/>
+      <c r="BC48" s="30"/>
+      <c r="BD48" s="30"/>
+      <c r="BE48" s="30"/>
+      <c r="BF48" s="30"/>
+      <c r="BG48" s="30"/>
+      <c r="BH48" s="30"/>
+      <c r="BI48" s="30"/>
+      <c r="BJ48" s="30"/>
+      <c r="BK48" s="30"/>
+      <c r="BL48" s="30"/>
+    </row>
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="25">
+        <v>0</v>
+      </c>
+      <c r="E49" s="75">
+        <v>44790</v>
+      </c>
+      <c r="F49" s="75">
+        <v>44790</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="30"/>
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30"/>
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="30"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="30"/>
+      <c r="AU49" s="30"/>
+      <c r="AV49" s="30"/>
+      <c r="AW49" s="30"/>
+      <c r="AX49" s="30"/>
+      <c r="AY49" s="30"/>
+      <c r="AZ49" s="30"/>
+      <c r="BA49" s="30"/>
+      <c r="BB49" s="30"/>
+      <c r="BC49" s="30"/>
+      <c r="BD49" s="30"/>
+      <c r="BE49" s="30"/>
+      <c r="BF49" s="30"/>
+      <c r="BG49" s="30"/>
+      <c r="BH49" s="30"/>
+      <c r="BI49" s="30"/>
+      <c r="BJ49" s="30"/>
+      <c r="BK49" s="30"/>
+      <c r="BL49" s="30"/>
+    </row>
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="30"/>
+      <c r="AM50" s="30"/>
+      <c r="AN50" s="30"/>
+      <c r="AO50" s="30"/>
+      <c r="AP50" s="30"/>
+      <c r="AQ50" s="30"/>
+      <c r="AR50" s="30"/>
+      <c r="AS50" s="30"/>
+      <c r="AT50" s="30"/>
+      <c r="AU50" s="30"/>
+      <c r="AV50" s="30"/>
+      <c r="AW50" s="30"/>
+      <c r="AX50" s="30"/>
+      <c r="AY50" s="30"/>
+      <c r="AZ50" s="30"/>
+      <c r="BA50" s="30"/>
+      <c r="BB50" s="30"/>
+      <c r="BC50" s="30"/>
+      <c r="BD50" s="30"/>
+      <c r="BE50" s="30"/>
+      <c r="BF50" s="30"/>
+      <c r="BG50" s="30"/>
+      <c r="BH50" s="30"/>
+      <c r="BI50" s="30"/>
+      <c r="BJ50" s="30"/>
+      <c r="BK50" s="30"/>
+      <c r="BL50" s="30"/>
+    </row>
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+      <c r="B51" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="84">
+        <v>0</v>
+      </c>
+      <c r="E51" s="85">
+        <v>44791</v>
+      </c>
+      <c r="F51" s="85">
+        <v>44791</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="30"/>
+      <c r="AM51" s="30"/>
+      <c r="AN51" s="30"/>
+      <c r="AO51" s="30"/>
+      <c r="AP51" s="30"/>
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="30"/>
+      <c r="AS51" s="30"/>
+      <c r="AT51" s="30"/>
+      <c r="AU51" s="30"/>
+      <c r="AV51" s="30"/>
+      <c r="AW51" s="30"/>
+      <c r="AX51" s="30"/>
+      <c r="AY51" s="30"/>
+      <c r="AZ51" s="30"/>
+      <c r="BA51" s="30"/>
+      <c r="BB51" s="30"/>
+      <c r="BC51" s="30"/>
+      <c r="BD51" s="30"/>
+      <c r="BE51" s="30"/>
+      <c r="BF51" s="30"/>
+      <c r="BG51" s="30"/>
+      <c r="BH51" s="30"/>
+      <c r="BI51" s="30"/>
+      <c r="BJ51" s="30"/>
+      <c r="BK51" s="30"/>
+      <c r="BL51" s="30"/>
+    </row>
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
+      <c r="B52" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="84">
+        <v>0</v>
+      </c>
+      <c r="E52" s="85">
+        <v>44791</v>
+      </c>
+      <c r="F52" s="85">
+        <v>44791</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="30"/>
+      <c r="AG52" s="30"/>
+      <c r="AH52" s="30"/>
+      <c r="AI52" s="30"/>
+      <c r="AJ52" s="30"/>
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="30"/>
+      <c r="AM52" s="30"/>
+      <c r="AN52" s="30"/>
+      <c r="AO52" s="30"/>
+      <c r="AP52" s="30"/>
+      <c r="AQ52" s="30"/>
+      <c r="AR52" s="30"/>
+      <c r="AS52" s="30"/>
+      <c r="AT52" s="30"/>
+      <c r="AU52" s="30"/>
+      <c r="AV52" s="30"/>
+      <c r="AW52" s="30"/>
+      <c r="AX52" s="30"/>
+      <c r="AY52" s="30"/>
+      <c r="AZ52" s="30"/>
+      <c r="BA52" s="30"/>
+      <c r="BB52" s="30"/>
+      <c r="BC52" s="30"/>
+      <c r="BD52" s="30"/>
+      <c r="BE52" s="30"/>
+      <c r="BF52" s="30"/>
+      <c r="BG52" s="30"/>
+      <c r="BH52" s="30"/>
+      <c r="BI52" s="30"/>
+      <c r="BJ52" s="30"/>
+      <c r="BK52" s="30"/>
+      <c r="BL52" s="30"/>
+    </row>
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="32"/>
+      <c r="AE53" s="32"/>
+      <c r="AF53" s="32"/>
+      <c r="AG53" s="32"/>
+      <c r="AH53" s="32"/>
+      <c r="AI53" s="32"/>
+      <c r="AJ53" s="32"/>
+      <c r="AK53" s="32"/>
+      <c r="AL53" s="32"/>
+      <c r="AM53" s="32"/>
+      <c r="AN53" s="32"/>
+      <c r="AO53" s="32"/>
+      <c r="AP53" s="32"/>
+      <c r="AQ53" s="32"/>
+      <c r="AR53" s="32"/>
+      <c r="AS53" s="32"/>
+      <c r="AT53" s="32"/>
+      <c r="AU53" s="32"/>
+      <c r="AV53" s="32"/>
+      <c r="AW53" s="32"/>
+      <c r="AX53" s="32"/>
+      <c r="AY53" s="32"/>
+      <c r="AZ53" s="32"/>
+      <c r="BA53" s="32"/>
+      <c r="BB53" s="32"/>
+      <c r="BC53" s="32"/>
+      <c r="BD53" s="32"/>
+      <c r="BE53" s="32"/>
+      <c r="BF53" s="32"/>
+      <c r="BG53" s="32"/>
+      <c r="BH53" s="32"/>
+      <c r="BI53" s="32"/>
+      <c r="BJ53" s="32"/>
+      <c r="BK53" s="32"/>
+      <c r="BL53" s="32"/>
+    </row>
+    <row r="54" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="11"/>
+      <c r="F55" s="46"/>
+    </row>
+    <row r="56" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="30">
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
@@ -4968,8 +6417,8 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D34 D36">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="D7:D9 D53 D24 D11 D14 D16:D18 D26 D28:D29 D31 D33 D35 D37 D40:D42 D44 D46 D48 D50:D51">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4982,21 +6431,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL36">
-    <cfRule type="expression" dxfId="2" priority="34">
+  <conditionalFormatting sqref="I5:BL19 I24:BL53">
+    <cfRule type="expression" dxfId="8" priority="66">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="1" priority="28">
+  <conditionalFormatting sqref="I7:BL19 I24:BL53">
+    <cfRule type="expression" dxfId="7" priority="60">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="61" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5009,8 +6458,328 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Mostrar semana" prompt="Al cambiar este número, se desplazará la vista del diagrama de Gantt." sqref="E4">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DD1DD03-071D-4BAF-83C2-7AA6FFE9A1BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:BL23">
+    <cfRule type="expression" dxfId="5" priority="32">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:BL23">
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BL21">
+    <cfRule type="expression" dxfId="2" priority="28">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:BL21">
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="27" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{321E8A24-E4B5-4870-B874-4990EDA8015E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3FE99CCD-0497-4AEA-A4EE-7BA8DAF6831B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AE293911-F3F4-4BB0-9ED3-66BFED08AE04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2F4DB61-E7AC-40F3-8694-6C7081BA6A20}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{734B557F-CCBF-4EE1-B941-45950404E955}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D221A1E-753C-4269-A2F2-98D11FBD4358}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97C2E1AB-F6CC-4D95-8A57-0234DDF285CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4054E8A1-E277-4A93-B4D9-7CC21AEE8712}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{147B8135-8EF1-44E5-8107-A8CADCE897E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DFAA409A-FE4C-460C-B221-BC2A84B6CF16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8CBDB091-F4FB-4A73-A959-C2F2E628B010}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B775579E-9BEF-434F-BC6E-693CA63B3690}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1766849F-8CF9-4D82-913D-1294B2B3BBB5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{014B6B36-A056-4F98-A7FF-230606BE17C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{70F80480-4948-49E1-A6D7-2B6C130A407D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1D59C3A7-4D89-4E09-B7F7-6E181997D32F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03AA790C-4240-4056-8C1E-BEA11E7589BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FEDA3DDC-1FE6-4E77-94CC-A5D1C2BB4C9E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04041418-A594-44A3-B10F-F5EB88313275}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A954DA3-6223-4E4C-B19B-2D7D84A472FC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Mostrar semana" prompt="Al cambiar este número, se desplazará la vista del diagrama de Gantt." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -5036,7 +6805,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D34 D36</xm:sqref>
+          <xm:sqref>D7:D9 D53 D24 D11 D14 D16:D18 D26 D28:D29 D31 D33 D35 D37 D40:D42 D44 D46 D48 D50:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5266951-9919-4B55-AFAB-1546ABE09ED1}">
@@ -5051,7 +6820,322 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DD1DD03-071D-4BAF-83C2-7AA6FFE9A1BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{321E8A24-E4B5-4870-B874-4990EDA8015E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3FE99CCD-0497-4AEA-A4EE-7BA8DAF6831B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AE293911-F3F4-4BB0-9ED3-66BFED08AE04}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E2F4DB61-E7AC-40F3-8694-6C7081BA6A20}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{734B557F-CCBF-4EE1-B941-45950404E955}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4D221A1E-753C-4269-A2F2-98D11FBD4358}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97C2E1AB-F6CC-4D95-8A57-0234DDF285CA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4054E8A1-E277-4A93-B4D9-7CC21AEE8712}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{147B8135-8EF1-44E5-8107-A8CADCE897E3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DFAA409A-FE4C-460C-B221-BC2A84B6CF16}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8CBDB091-F4FB-4A73-A959-C2F2E628B010}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B775579E-9BEF-434F-BC6E-693CA63B3690}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1766849F-8CF9-4D82-913D-1294B2B3BBB5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{014B6B36-A056-4F98-A7FF-230606BE17C5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{70F80480-4948-49E1-A6D7-2B6C130A407D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1D59C3A7-4D89-4E09-B7F7-6E181997D32F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03AA790C-4240-4056-8C1E-BEA11E7589BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FEDA3DDC-1FE6-4E77-94CC-A5D1C2BB4C9E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04041418-A594-44A3-B10F-F5EB88313275}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A954DA3-6223-4E4C-B19B-2D7D84A472FC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5060,7 +7144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5074,87 +7158,87 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="41"/>
     </row>
     <row r="4" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="34" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
